--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H2">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.03533045753573</v>
+        <v>3.062569</v>
       </c>
       <c r="N2">
-        <v>3.03533045753573</v>
+        <v>9.187707</v>
       </c>
       <c r="O2">
-        <v>0.2514573782857693</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="P2">
-        <v>0.2514573782857693</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="Q2">
-        <v>1.127965599304261</v>
+        <v>1.189505883025333</v>
       </c>
       <c r="R2">
-        <v>1.127965599304261</v>
+        <v>10.705552947228</v>
       </c>
       <c r="S2">
-        <v>0.2514573782857693</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="T2">
-        <v>0.2514573782857693</v>
+        <v>0.2690593624267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H3">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.89880084844348</v>
+        <v>6.147102</v>
       </c>
       <c r="N3">
-        <v>5.89880084844348</v>
+        <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4886772683010276</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="P3">
-        <v>0.4886772683010276</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="Q3">
-        <v>2.192065914165035</v>
+        <v>2.387542612936</v>
       </c>
       <c r="R3">
-        <v>2.192065914165035</v>
+        <v>21.487883516424</v>
       </c>
       <c r="S3">
-        <v>0.4886772683010276</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="T3">
-        <v>0.4886772683010276</v>
+        <v>0.5400483531609875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H4">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +676,158 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.13682273890955</v>
+        <v>0.01759833333333333</v>
       </c>
       <c r="N4">
-        <v>3.13682273890955</v>
+        <v>0.052795</v>
       </c>
       <c r="O4">
-        <v>0.259865353413203</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="P4">
-        <v>0.259865353413203</v>
+        <v>0.001546086421706485</v>
       </c>
       <c r="Q4">
-        <v>1.165681361586539</v>
+        <v>0.006835216131111112</v>
       </c>
       <c r="R4">
-        <v>1.165681361586539</v>
+        <v>0.06151694518000001</v>
       </c>
       <c r="S4">
-        <v>0.259865353413203</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="T4">
-        <v>0.259865353413203</v>
+        <v>0.001546086421706485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3884013333333334</v>
+      </c>
+      <c r="H5">
+        <v>1.165204</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.022088</v>
+      </c>
+      <c r="N5">
+        <v>0.066264</v>
+      </c>
+      <c r="O5">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="P5">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="Q5">
+        <v>0.008579008650666667</v>
+      </c>
+      <c r="R5">
+        <v>0.07721107785600001</v>
+      </c>
+      <c r="S5">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="T5">
+        <v>0.00194052222081558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3884013333333334</v>
+      </c>
+      <c r="H6">
+        <v>1.165204</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.1997185</v>
+      </c>
+      <c r="N6">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="P6">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="Q6">
+        <v>1.242774931691334</v>
+      </c>
+      <c r="R6">
+        <v>7.456649590148001</v>
+      </c>
+      <c r="S6">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="T6">
+        <v>0.1874056757697904</v>
       </c>
     </row>
   </sheetData>
